--- a/templates/OT_IQC.xlsx
+++ b/templates/OT_IQC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GPM\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F23D24-009D-45C4-A502-680BAC48D000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6925EFBF-FDE7-41B3-9146-CDDF63AD4634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,7 +2042,7 @@
   <dimension ref="A1:Y237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2591,7 +2591,10 @@
       <c r="N23" s="44"/>
       <c r="O23" s="82"/>
       <c r="P23" s="83"/>
-      <c r="R23" s="67"/>
+      <c r="R23" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S23" s="59">
         <f>IF(C23&lt;&gt;"",IFERROR(MATCH(R23,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2614,7 +2617,10 @@
       <c r="N24" s="44"/>
       <c r="O24" s="82"/>
       <c r="P24" s="83"/>
-      <c r="R24" s="67"/>
+      <c r="R24" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S24" s="59">
         <f>IF(C24&lt;&gt;"",IFERROR(MATCH(R24,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2637,7 +2643,10 @@
       <c r="N25" s="44"/>
       <c r="O25" s="82"/>
       <c r="P25" s="83"/>
-      <c r="R25" s="67"/>
+      <c r="R25" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S25" s="59">
         <f>IF(C25&lt;&gt;"",IFERROR(MATCH(R25,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2660,7 +2669,10 @@
       <c r="N26" s="44"/>
       <c r="O26" s="82"/>
       <c r="P26" s="83"/>
-      <c r="R26" s="67"/>
+      <c r="R26" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S26" s="59">
         <f>IF(C26&lt;&gt;"",IFERROR(MATCH(R26,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2683,7 +2695,10 @@
       <c r="N27" s="44"/>
       <c r="O27" s="82"/>
       <c r="P27" s="83"/>
-      <c r="R27" s="67"/>
+      <c r="R27" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S27" s="59">
         <f>IF(C27&lt;&gt;"",IFERROR(MATCH(R27,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2706,7 +2721,10 @@
       <c r="N28" s="44"/>
       <c r="O28" s="82"/>
       <c r="P28" s="83"/>
-      <c r="R28" s="67"/>
+      <c r="R28" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S28" s="59">
         <f>IF(C28&lt;&gt;"",IFERROR(MATCH(R28,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2729,7 +2747,10 @@
       <c r="N29" s="44"/>
       <c r="O29" s="82"/>
       <c r="P29" s="83"/>
-      <c r="R29" s="67"/>
+      <c r="R29" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S29" s="59">
         <f>IF(C29&lt;&gt;"",IFERROR(MATCH(R29,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2752,7 +2773,10 @@
       <c r="N30" s="44"/>
       <c r="O30" s="82"/>
       <c r="P30" s="83"/>
-      <c r="R30" s="67"/>
+      <c r="R30" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S30" s="59">
         <f>IF(C30&lt;&gt;"",IFERROR(MATCH(R30,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2775,7 +2799,10 @@
       <c r="N31" s="44"/>
       <c r="O31" s="82"/>
       <c r="P31" s="83"/>
-      <c r="R31" s="67"/>
+      <c r="R31" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S31" s="59">
         <f>IF(C31&lt;&gt;"",IFERROR(MATCH(R31,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2798,7 +2825,10 @@
       <c r="N32" s="44"/>
       <c r="O32" s="82"/>
       <c r="P32" s="83"/>
-      <c r="R32" s="67"/>
+      <c r="R32" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S32" s="59">
         <f>IF(C32&lt;&gt;"",IFERROR(MATCH(R32,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2821,7 +2851,10 @@
       <c r="N33" s="44"/>
       <c r="O33" s="82"/>
       <c r="P33" s="83"/>
-      <c r="R33" s="67"/>
+      <c r="R33" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S33" s="59">
         <f>IF(C33&lt;&gt;"",IFERROR(MATCH(R33,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2844,7 +2877,10 @@
       <c r="N34" s="44"/>
       <c r="O34" s="82"/>
       <c r="P34" s="83"/>
-      <c r="R34" s="67"/>
+      <c r="R34" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S34" s="59">
         <f>IF(C34&lt;&gt;"",IFERROR(MATCH(R34,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2867,7 +2903,10 @@
       <c r="N35" s="44"/>
       <c r="O35" s="82"/>
       <c r="P35" s="83"/>
-      <c r="R35" s="67"/>
+      <c r="R35" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S35" s="59">
         <f>IF(C35&lt;&gt;"",IFERROR(MATCH(R35,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2890,7 +2929,10 @@
       <c r="N36" s="44"/>
       <c r="O36" s="82"/>
       <c r="P36" s="83"/>
-      <c r="R36" s="67"/>
+      <c r="R36" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S36" s="59">
         <f>IF(C36&lt;&gt;"",IFERROR(MATCH(R36,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2913,7 +2955,10 @@
       <c r="N37" s="44"/>
       <c r="O37" s="82"/>
       <c r="P37" s="83"/>
-      <c r="R37" s="67"/>
+      <c r="R37" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S37" s="59">
         <f>IF(C37&lt;&gt;"",IFERROR(MATCH(R37,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2936,7 +2981,10 @@
       <c r="N38" s="44"/>
       <c r="O38" s="82"/>
       <c r="P38" s="83"/>
-      <c r="R38" s="67"/>
+      <c r="R38" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S38" s="59">
         <f>IF(C38&lt;&gt;"",IFERROR(MATCH(R38,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2959,7 +3007,10 @@
       <c r="N39" s="44"/>
       <c r="O39" s="82"/>
       <c r="P39" s="83"/>
-      <c r="R39" s="67"/>
+      <c r="R39" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S39" s="59">
         <f>IF(C39&lt;&gt;"",IFERROR(MATCH(R39,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -2982,7 +3033,10 @@
       <c r="N40" s="44"/>
       <c r="O40" s="82"/>
       <c r="P40" s="83"/>
-      <c r="R40" s="67"/>
+      <c r="R40" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S40" s="59">
         <f>IF(C40&lt;&gt;"",IFERROR(MATCH(R40,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3005,7 +3059,10 @@
       <c r="N41" s="44"/>
       <c r="O41" s="82"/>
       <c r="P41" s="83"/>
-      <c r="R41" s="67"/>
+      <c r="R41" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S41" s="59">
         <f>IF(C41&lt;&gt;"",IFERROR(MATCH(R41,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3028,7 +3085,10 @@
       <c r="N42" s="44"/>
       <c r="O42" s="82"/>
       <c r="P42" s="83"/>
-      <c r="R42" s="67"/>
+      <c r="R42" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S42" s="59">
         <f>IF(C42&lt;&gt;"",IFERROR(MATCH(R42,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3051,7 +3111,10 @@
       <c r="N43" s="44"/>
       <c r="O43" s="82"/>
       <c r="P43" s="83"/>
-      <c r="R43" s="67"/>
+      <c r="R43" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S43" s="59">
         <f>IF(C43&lt;&gt;"",IFERROR(MATCH(R43,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3074,7 +3137,10 @@
       <c r="N44" s="44"/>
       <c r="O44" s="82"/>
       <c r="P44" s="83"/>
-      <c r="R44" s="67"/>
+      <c r="R44" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S44" s="59">
         <f>IF(C44&lt;&gt;"",IFERROR(MATCH(R44,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3097,7 +3163,10 @@
       <c r="N45" s="44"/>
       <c r="O45" s="82"/>
       <c r="P45" s="83"/>
-      <c r="R45" s="67"/>
+      <c r="R45" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S45" s="59">
         <f>IF(C45&lt;&gt;"",IFERROR(MATCH(R45,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3120,7 +3189,10 @@
       <c r="N46" s="44"/>
       <c r="O46" s="82"/>
       <c r="P46" s="83"/>
-      <c r="R46" s="67"/>
+      <c r="R46" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S46" s="59">
         <f>IF(C46&lt;&gt;"",IFERROR(MATCH(R46,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3143,7 +3215,10 @@
       <c r="N47" s="44"/>
       <c r="O47" s="82"/>
       <c r="P47" s="83"/>
-      <c r="R47" s="67"/>
+      <c r="R47" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S47" s="59">
         <f>IF(C47&lt;&gt;"",IFERROR(MATCH(R47,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3166,7 +3241,10 @@
       <c r="N48" s="44"/>
       <c r="O48" s="82"/>
       <c r="P48" s="83"/>
-      <c r="R48" s="67"/>
+      <c r="R48" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S48" s="59">
         <f>IF(C48&lt;&gt;"",IFERROR(MATCH(R48,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3189,7 +3267,10 @@
       <c r="N49" s="44"/>
       <c r="O49" s="82"/>
       <c r="P49" s="83"/>
-      <c r="R49" s="67"/>
+      <c r="R49" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S49" s="59">
         <f>IF(C49&lt;&gt;"",IFERROR(MATCH(R49,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3212,7 +3293,10 @@
       <c r="N50" s="44"/>
       <c r="O50" s="82"/>
       <c r="P50" s="83"/>
-      <c r="R50" s="67"/>
+      <c r="R50" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S50" s="59">
         <f>IF(C50&lt;&gt;"",IFERROR(MATCH(R50,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3235,7 +3319,10 @@
       <c r="N51" s="44"/>
       <c r="O51" s="82"/>
       <c r="P51" s="83"/>
-      <c r="R51" s="67"/>
+      <c r="R51" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S51" s="59">
         <f>IF(C51&lt;&gt;"",IFERROR(MATCH(R51,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3258,7 +3345,10 @@
       <c r="N52" s="44"/>
       <c r="O52" s="82"/>
       <c r="P52" s="83"/>
-      <c r="R52" s="67"/>
+      <c r="R52" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S52" s="59">
         <f>IF(C52&lt;&gt;"",IFERROR(MATCH(R52,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3281,7 +3371,10 @@
       <c r="N53" s="44"/>
       <c r="O53" s="82"/>
       <c r="P53" s="83"/>
-      <c r="R53" s="67"/>
+      <c r="R53" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S53" s="59">
         <f>IF(C53&lt;&gt;"",IFERROR(MATCH(R53,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3304,7 +3397,10 @@
       <c r="N54" s="44"/>
       <c r="O54" s="82"/>
       <c r="P54" s="83"/>
-      <c r="R54" s="67"/>
+      <c r="R54" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S54" s="59">
         <f>IF(C54&lt;&gt;"",IFERROR(MATCH(R54,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3327,7 +3423,10 @@
       <c r="N55" s="44"/>
       <c r="O55" s="82"/>
       <c r="P55" s="83"/>
-      <c r="R55" s="67"/>
+      <c r="R55" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S55" s="59">
         <f>IF(C55&lt;&gt;"",IFERROR(MATCH(R55,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3350,7 +3449,10 @@
       <c r="N56" s="44"/>
       <c r="O56" s="82"/>
       <c r="P56" s="83"/>
-      <c r="R56" s="67"/>
+      <c r="R56" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S56" s="59">
         <f>IF(C56&lt;&gt;"",IFERROR(MATCH(R56,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3373,7 +3475,10 @@
       <c r="N57" s="44"/>
       <c r="O57" s="82"/>
       <c r="P57" s="83"/>
-      <c r="R57" s="67"/>
+      <c r="R57" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S57" s="59">
         <f>IF(C57&lt;&gt;"",IFERROR(MATCH(R57,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3396,7 +3501,10 @@
       <c r="N58" s="44"/>
       <c r="O58" s="82"/>
       <c r="P58" s="83"/>
-      <c r="R58" s="67"/>
+      <c r="R58" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S58" s="59">
         <f>IF(C58&lt;&gt;"",IFERROR(MATCH(R58,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3419,7 +3527,10 @@
       <c r="N59" s="44"/>
       <c r="O59" s="82"/>
       <c r="P59" s="83"/>
-      <c r="R59" s="67"/>
+      <c r="R59" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S59" s="59">
         <f>IF(C59&lt;&gt;"",IFERROR(MATCH(R59,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3442,7 +3553,10 @@
       <c r="N60" s="44"/>
       <c r="O60" s="82"/>
       <c r="P60" s="83"/>
-      <c r="R60" s="67"/>
+      <c r="R60" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S60" s="59">
         <f>IF(C60&lt;&gt;"",IFERROR(MATCH(R60,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3465,7 +3579,10 @@
       <c r="N61" s="44"/>
       <c r="O61" s="82"/>
       <c r="P61" s="83"/>
-      <c r="R61" s="67"/>
+      <c r="R61" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S61" s="59">
         <f>IF(C61&lt;&gt;"",IFERROR(MATCH(R61,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3488,7 +3605,10 @@
       <c r="N62" s="44"/>
       <c r="O62" s="82"/>
       <c r="P62" s="83"/>
-      <c r="R62" s="67"/>
+      <c r="R62" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S62" s="59">
         <f>IF(C62&lt;&gt;"",IFERROR(MATCH(R62,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3511,7 +3631,10 @@
       <c r="N63" s="44"/>
       <c r="O63" s="82"/>
       <c r="P63" s="83"/>
-      <c r="R63" s="67"/>
+      <c r="R63" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S63" s="59">
         <f>IF(C63&lt;&gt;"",IFERROR(MATCH(R63,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3534,7 +3657,10 @@
       <c r="N64" s="44"/>
       <c r="O64" s="82"/>
       <c r="P64" s="83"/>
-      <c r="R64" s="67"/>
+      <c r="R64" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S64" s="59">
         <f>IF(C64&lt;&gt;"",IFERROR(MATCH(R64,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3557,7 +3683,10 @@
       <c r="N65" s="44"/>
       <c r="O65" s="82"/>
       <c r="P65" s="83"/>
-      <c r="R65" s="67"/>
+      <c r="R65" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S65" s="59">
         <f>IF(C65&lt;&gt;"",IFERROR(MATCH(R65,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3580,7 +3709,10 @@
       <c r="N66" s="44"/>
       <c r="O66" s="82"/>
       <c r="P66" s="83"/>
-      <c r="R66" s="67"/>
+      <c r="R66" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S66" s="59">
         <f>IF(C66&lt;&gt;"",IFERROR(MATCH(R66,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3603,7 +3735,10 @@
       <c r="N67" s="44"/>
       <c r="O67" s="82"/>
       <c r="P67" s="83"/>
-      <c r="R67" s="67"/>
+      <c r="R67" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S67" s="59">
         <f>IF(C67&lt;&gt;"",IFERROR(MATCH(R67,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3626,7 +3761,10 @@
       <c r="N68" s="44"/>
       <c r="O68" s="82"/>
       <c r="P68" s="83"/>
-      <c r="R68" s="67"/>
+      <c r="R68" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S68" s="59">
         <f>IF(C68&lt;&gt;"",IFERROR(MATCH(R68,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3649,7 +3787,10 @@
       <c r="N69" s="44"/>
       <c r="O69" s="82"/>
       <c r="P69" s="83"/>
-      <c r="R69" s="67"/>
+      <c r="R69" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S69" s="59">
         <f>IF(C69&lt;&gt;"",IFERROR(MATCH(R69,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3672,7 +3813,10 @@
       <c r="N70" s="44"/>
       <c r="O70" s="82"/>
       <c r="P70" s="83"/>
-      <c r="R70" s="67"/>
+      <c r="R70" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S70" s="59">
         <f>IF(C70&lt;&gt;"",IFERROR(MATCH(R70,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3695,7 +3839,10 @@
       <c r="N71" s="44"/>
       <c r="O71" s="82"/>
       <c r="P71" s="83"/>
-      <c r="R71" s="67"/>
+      <c r="R71" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S71" s="59">
         <f>IF(C71&lt;&gt;"",IFERROR(MATCH(R71,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3718,7 +3865,10 @@
       <c r="N72" s="44"/>
       <c r="O72" s="82"/>
       <c r="P72" s="83"/>
-      <c r="R72" s="67"/>
+      <c r="R72" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S72" s="59">
         <f>IF(C72&lt;&gt;"",IFERROR(MATCH(R72,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3741,7 +3891,10 @@
       <c r="N73" s="44"/>
       <c r="O73" s="82"/>
       <c r="P73" s="83"/>
-      <c r="R73" s="67"/>
+      <c r="R73" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S73" s="59">
         <f>IF(C73&lt;&gt;"",IFERROR(MATCH(R73,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3764,7 +3917,10 @@
       <c r="N74" s="44"/>
       <c r="O74" s="82"/>
       <c r="P74" s="83"/>
-      <c r="R74" s="67"/>
+      <c r="R74" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S74" s="59">
         <f>IF(C74&lt;&gt;"",IFERROR(MATCH(R74,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3787,7 +3943,10 @@
       <c r="N75" s="44"/>
       <c r="O75" s="82"/>
       <c r="P75" s="83"/>
-      <c r="R75" s="67"/>
+      <c r="R75" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S75" s="59">
         <f>IF(C75&lt;&gt;"",IFERROR(MATCH(R75,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3810,7 +3969,10 @@
       <c r="N76" s="44"/>
       <c r="O76" s="82"/>
       <c r="P76" s="83"/>
-      <c r="R76" s="67"/>
+      <c r="R76" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S76" s="59">
         <f>IF(C76&lt;&gt;"",IFERROR(MATCH(R76,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3833,7 +3995,10 @@
       <c r="N77" s="44"/>
       <c r="O77" s="82"/>
       <c r="P77" s="83"/>
-      <c r="R77" s="67"/>
+      <c r="R77" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S77" s="59">
         <f>IF(C77&lt;&gt;"",IFERROR(MATCH(R77,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3856,7 +4021,10 @@
       <c r="N78" s="44"/>
       <c r="O78" s="82"/>
       <c r="P78" s="83"/>
-      <c r="R78" s="67"/>
+      <c r="R78" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S78" s="59">
         <f>IF(C78&lt;&gt;"",IFERROR(MATCH(R78,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3879,7 +4047,10 @@
       <c r="N79" s="44"/>
       <c r="O79" s="82"/>
       <c r="P79" s="83"/>
-      <c r="R79" s="67"/>
+      <c r="R79" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S79" s="59">
         <f>IF(C79&lt;&gt;"",IFERROR(MATCH(R79,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3902,7 +4073,10 @@
       <c r="N80" s="44"/>
       <c r="O80" s="82"/>
       <c r="P80" s="83"/>
-      <c r="R80" s="67"/>
+      <c r="R80" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S80" s="59">
         <f>IF(C80&lt;&gt;"",IFERROR(MATCH(R80,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3925,7 +4099,10 @@
       <c r="N81" s="44"/>
       <c r="O81" s="82"/>
       <c r="P81" s="83"/>
-      <c r="R81" s="67"/>
+      <c r="R81" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S81" s="59">
         <f>IF(C81&lt;&gt;"",IFERROR(MATCH(R81,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3948,7 +4125,10 @@
       <c r="N82" s="44"/>
       <c r="O82" s="82"/>
       <c r="P82" s="83"/>
-      <c r="R82" s="67"/>
+      <c r="R82" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S82" s="59">
         <f>IF(C82&lt;&gt;"",IFERROR(MATCH(R82,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3971,7 +4151,10 @@
       <c r="N83" s="44"/>
       <c r="O83" s="82"/>
       <c r="P83" s="83"/>
-      <c r="R83" s="67"/>
+      <c r="R83" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S83" s="59">
         <f>IF(C83&lt;&gt;"",IFERROR(MATCH(R83,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -3994,7 +4177,10 @@
       <c r="N84" s="44"/>
       <c r="O84" s="82"/>
       <c r="P84" s="83"/>
-      <c r="R84" s="67"/>
+      <c r="R84" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S84" s="59">
         <f>IF(C84&lt;&gt;"",IFERROR(MATCH(R84,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4017,7 +4203,10 @@
       <c r="N85" s="44"/>
       <c r="O85" s="82"/>
       <c r="P85" s="83"/>
-      <c r="R85" s="67"/>
+      <c r="R85" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S85" s="59">
         <f>IF(C85&lt;&gt;"",IFERROR(MATCH(R85,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4040,7 +4229,10 @@
       <c r="N86" s="44"/>
       <c r="O86" s="82"/>
       <c r="P86" s="83"/>
-      <c r="R86" s="67"/>
+      <c r="R86" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S86" s="59">
         <f>IF(C86&lt;&gt;"",IFERROR(MATCH(R86,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4063,7 +4255,10 @@
       <c r="N87" s="44"/>
       <c r="O87" s="82"/>
       <c r="P87" s="83"/>
-      <c r="R87" s="67"/>
+      <c r="R87" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S87" s="59">
         <f>IF(C87&lt;&gt;"",IFERROR(MATCH(R87,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4086,7 +4281,10 @@
       <c r="N88" s="44"/>
       <c r="O88" s="82"/>
       <c r="P88" s="83"/>
-      <c r="R88" s="67"/>
+      <c r="R88" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S88" s="59">
         <f>IF(C88&lt;&gt;"",IFERROR(MATCH(R88,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4109,7 +4307,10 @@
       <c r="N89" s="44"/>
       <c r="O89" s="82"/>
       <c r="P89" s="83"/>
-      <c r="R89" s="67"/>
+      <c r="R89" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S89" s="59">
         <f>IF(C89&lt;&gt;"",IFERROR(MATCH(R89,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4132,7 +4333,10 @@
       <c r="N90" s="44"/>
       <c r="O90" s="82"/>
       <c r="P90" s="83"/>
-      <c r="R90" s="67"/>
+      <c r="R90" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S90" s="59">
         <f>IF(C90&lt;&gt;"",IFERROR(MATCH(R90,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4155,7 +4359,10 @@
       <c r="N91" s="44"/>
       <c r="O91" s="82"/>
       <c r="P91" s="83"/>
-      <c r="R91" s="67"/>
+      <c r="R91" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S91" s="59">
         <f>IF(C91&lt;&gt;"",IFERROR(MATCH(R91,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4178,7 +4385,10 @@
       <c r="N92" s="44"/>
       <c r="O92" s="82"/>
       <c r="P92" s="83"/>
-      <c r="R92" s="67"/>
+      <c r="R92" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S92" s="59">
         <f>IF(C92&lt;&gt;"",IFERROR(MATCH(R92,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4201,7 +4411,10 @@
       <c r="N93" s="44"/>
       <c r="O93" s="82"/>
       <c r="P93" s="83"/>
-      <c r="R93" s="67"/>
+      <c r="R93" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S93" s="59">
         <f>IF(C93&lt;&gt;"",IFERROR(MATCH(R93,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4224,7 +4437,10 @@
       <c r="N94" s="44"/>
       <c r="O94" s="82"/>
       <c r="P94" s="83"/>
-      <c r="R94" s="67"/>
+      <c r="R94" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S94" s="59">
         <f>IF(C94&lt;&gt;"",IFERROR(MATCH(R94,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4247,7 +4463,10 @@
       <c r="N95" s="44"/>
       <c r="O95" s="82"/>
       <c r="P95" s="83"/>
-      <c r="R95" s="67"/>
+      <c r="R95" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S95" s="59">
         <f>IF(C95&lt;&gt;"",IFERROR(MATCH(R95,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4270,7 +4489,10 @@
       <c r="N96" s="44"/>
       <c r="O96" s="82"/>
       <c r="P96" s="83"/>
-      <c r="R96" s="67"/>
+      <c r="R96" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S96" s="59">
         <f>IF(C96&lt;&gt;"",IFERROR(MATCH(R96,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4293,7 +4515,10 @@
       <c r="N97" s="44"/>
       <c r="O97" s="82"/>
       <c r="P97" s="83"/>
-      <c r="R97" s="67"/>
+      <c r="R97" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S97" s="59">
         <f>IF(C97&lt;&gt;"",IFERROR(MATCH(R97,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4316,7 +4541,10 @@
       <c r="N98" s="44"/>
       <c r="O98" s="82"/>
       <c r="P98" s="83"/>
-      <c r="R98" s="67"/>
+      <c r="R98" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S98" s="59">
         <f>IF(C98&lt;&gt;"",IFERROR(MATCH(R98,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4339,7 +4567,10 @@
       <c r="N99" s="44"/>
       <c r="O99" s="82"/>
       <c r="P99" s="83"/>
-      <c r="R99" s="67"/>
+      <c r="R99" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S99" s="59">
         <f>IF(C99&lt;&gt;"",IFERROR(MATCH(R99,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4362,7 +4593,10 @@
       <c r="N100" s="44"/>
       <c r="O100" s="82"/>
       <c r="P100" s="83"/>
-      <c r="R100" s="67"/>
+      <c r="R100" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S100" s="59">
         <f>IF(C100&lt;&gt;"",IFERROR(MATCH(R100,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4385,7 +4619,10 @@
       <c r="N101" s="44"/>
       <c r="O101" s="82"/>
       <c r="P101" s="83"/>
-      <c r="R101" s="67"/>
+      <c r="R101" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S101" s="59">
         <f>IF(C101&lt;&gt;"",IFERROR(MATCH(R101,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4408,7 +4645,10 @@
       <c r="N102" s="44"/>
       <c r="O102" s="82"/>
       <c r="P102" s="83"/>
-      <c r="R102" s="67"/>
+      <c r="R102" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S102" s="59">
         <f>IF(C102&lt;&gt;"",IFERROR(MATCH(R102,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4431,7 +4671,10 @@
       <c r="N103" s="44"/>
       <c r="O103" s="82"/>
       <c r="P103" s="83"/>
-      <c r="R103" s="67"/>
+      <c r="R103" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S103" s="59">
         <f>IF(C103&lt;&gt;"",IFERROR(MATCH(R103,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4454,7 +4697,10 @@
       <c r="N104" s="44"/>
       <c r="O104" s="82"/>
       <c r="P104" s="83"/>
-      <c r="R104" s="67"/>
+      <c r="R104" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S104" s="59">
         <f>IF(C104&lt;&gt;"",IFERROR(MATCH(R104,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4477,7 +4723,10 @@
       <c r="N105" s="44"/>
       <c r="O105" s="82"/>
       <c r="P105" s="83"/>
-      <c r="R105" s="67"/>
+      <c r="R105" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S105" s="59">
         <f>IF(C105&lt;&gt;"",IFERROR(MATCH(R105,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4500,7 +4749,10 @@
       <c r="N106" s="44"/>
       <c r="O106" s="82"/>
       <c r="P106" s="83"/>
-      <c r="R106" s="67"/>
+      <c r="R106" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S106" s="59">
         <f>IF(C106&lt;&gt;"",IFERROR(MATCH(R106,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4523,7 +4775,10 @@
       <c r="N107" s="44"/>
       <c r="O107" s="82"/>
       <c r="P107" s="83"/>
-      <c r="R107" s="67"/>
+      <c r="R107" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S107" s="59">
         <f>IF(C107&lt;&gt;"",IFERROR(MATCH(R107,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4546,7 +4801,10 @@
       <c r="N108" s="44"/>
       <c r="O108" s="82"/>
       <c r="P108" s="83"/>
-      <c r="R108" s="67"/>
+      <c r="R108" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S108" s="59">
         <f>IF(C108&lt;&gt;"",IFERROR(MATCH(R108,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4569,7 +4827,10 @@
       <c r="N109" s="44"/>
       <c r="O109" s="82"/>
       <c r="P109" s="83"/>
-      <c r="R109" s="67"/>
+      <c r="R109" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S109" s="59">
         <f>IF(C109&lt;&gt;"",IFERROR(MATCH(R109,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4592,7 +4853,10 @@
       <c r="N110" s="44"/>
       <c r="O110" s="82"/>
       <c r="P110" s="83"/>
-      <c r="R110" s="67"/>
+      <c r="R110" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S110" s="59">
         <f>IF(C110&lt;&gt;"",IFERROR(MATCH(R110,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4615,7 +4879,10 @@
       <c r="N111" s="44"/>
       <c r="O111" s="82"/>
       <c r="P111" s="83"/>
-      <c r="R111" s="67"/>
+      <c r="R111" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S111" s="59">
         <f>IF(C111&lt;&gt;"",IFERROR(MATCH(R111,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4638,7 +4905,10 @@
       <c r="N112" s="44"/>
       <c r="O112" s="82"/>
       <c r="P112" s="83"/>
-      <c r="R112" s="67"/>
+      <c r="R112" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S112" s="59">
         <f>IF(C112&lt;&gt;"",IFERROR(MATCH(R112,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -4661,7 +4931,10 @@
       <c r="N113" s="44"/>
       <c r="O113" s="82"/>
       <c r="P113" s="83"/>
-      <c r="R113" s="67"/>
+      <c r="R113" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="S113" s="59">
         <f>IF(C113&lt;&gt;"",IFERROR(MATCH(R113,'INSPECTION QUALITE DIM INSTRUM'!$R$15:$R$312,0),0),0)</f>
         <v>0</v>
@@ -7835,7 +8108,7 @@
         <v/>
       </c>
       <c r="R16" s="59" t="str">
-        <f t="shared" ref="R16:R186" si="1">B16&amp;C16</f>
+        <f t="shared" ref="R16:R24" si="1">B16&amp;C16</f>
         <v/>
       </c>
     </row>
